--- a/Design/Tài liệu thiết kế hệ thống.xlsx
+++ b/Design/Tài liệu thiết kế hệ thống.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>Driver</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>1:mới order đang chờ duyệt, 2: đang đến, 3: đã vào bãi,0:chưa có hành động gì ( or đã checkout)</t>
+  </si>
+  <si>
+    <t>Xóa</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -511,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -553,6 +562,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,11 +593,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +898,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -895,12 +908,12 @@
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,10 +932,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,10 +943,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,10 +956,10 @@
       <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
@@ -954,10 +967,10 @@
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -965,10 +978,10 @@
       <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
@@ -976,10 +989,10 @@
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
@@ -987,10 +1000,10 @@
       <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
@@ -998,10 +1011,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1009,10 +1022,10 @@
         <v>21</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="22"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1020,17 +1033,17 @@
         <v>22</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1039,35 +1052,35 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="22"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="22"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="22"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="22"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1076,28 +1089,28 @@
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="22"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="10"/>
       <c r="F23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="22"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="10"/>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="22"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="10"/>
       <c r="F25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="22"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,28 +1119,28 @@
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="22"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="10"/>
       <c r="F27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="22"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="10"/>
       <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="22"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="10"/>
       <c r="F29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="22"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +1149,7 @@
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="10"/>
       <c r="F31" s="7" t="s">
         <v>13</v>
@@ -1156,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1173,14 +1186,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,12 +1252,12 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1274,8 +1287,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1294,10 +1309,10 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1316,12 +1331,12 @@
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1336,7 +1351,7 @@
       <c r="C11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1351,12 +1366,12 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
@@ -1377,16 +1392,16 @@
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="8" t="s">
         <v>42</v>
       </c>
@@ -1424,10 +1439,10 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
@@ -1452,20 +1467,20 @@
     </row>
     <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="8" t="s">
         <v>46</v>
       </c>
@@ -1517,12 +1532,12 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="8" t="s">
         <v>54</v>
       </c>
@@ -1531,7 +1546,7 @@
       <c r="A26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -1553,11 +1568,11 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="8" t="s">
         <v>56</v>
       </c>

--- a/Design/Tài liệu thiết kế hệ thống.xlsx
+++ b/Design/Tài liệu thiết kế hệ thống.xlsx
@@ -334,7 +334,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +389,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF6D9EEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -520,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -565,6 +577,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,9 +600,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,8 +609,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,7 +916,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -908,12 +926,12 @@
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="23"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,10 +939,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="23"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="23"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,10 +950,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="23"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,10 +961,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="23"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -956,10 +974,10 @@
       <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="23"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
@@ -967,10 +985,10 @@
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="23"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -978,10 +996,10 @@
       <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="23"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
@@ -989,10 +1007,10 @@
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="23"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1000,10 +1018,10 @@
       <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="23"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1011,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="23"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1022,10 +1040,10 @@
         <v>21</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="23"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="23"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1033,17 +1051,17 @@
         <v>22</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1052,35 +1070,35 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="23"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="23"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="23"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="23"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="23"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1089,28 +1107,28 @@
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="23"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="10"/>
       <c r="F23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="23"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="10"/>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="23"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="10"/>
       <c r="F25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="23"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,28 +1137,28 @@
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="23"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="10"/>
       <c r="F27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="23"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="10"/>
       <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="23"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="10"/>
       <c r="F29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="23"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1149,7 +1167,7 @@
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="24"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="10"/>
       <c r="F31" s="7" t="s">
         <v>13</v>
@@ -1169,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1186,14 +1204,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,14 +1229,14 @@
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>81</v>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>66</v>
+      <c r="D2" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>82</v>
@@ -1237,7 +1255,6 @@
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -1252,12 +1269,12 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1304,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="35"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="3" t="s">
         <v>90</v>
       </c>
@@ -1309,10 +1326,10 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1331,12 +1348,12 @@
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1356,22 +1373,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
@@ -1392,16 +1409,16 @@
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="8" t="s">
         <v>42</v>
       </c>
@@ -1439,20 +1456,20 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="23" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="3"/>
@@ -1467,20 +1484,20 @@
     </row>
     <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="8" t="s">
         <v>46</v>
       </c>
@@ -1490,10 +1507,10 @@
         <v>64</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>47</v>
@@ -1504,16 +1521,16 @@
       <c r="F23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="23" t="s">
         <v>86</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="23" t="s">
         <v>59</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -1532,12 +1549,12 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="8" t="s">
         <v>54</v>
       </c>
@@ -1546,7 +1563,7 @@
       <c r="A26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -1568,11 +1585,11 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="8" t="s">
         <v>56</v>
       </c>
